--- a/res.xlsx
+++ b/res.xlsx
@@ -49,7 +49,7 @@
     <t>ghdzhjm@yahoo.com.cn</t>
   </si>
   <si>
-    <t>2015-10-20T09:10:36.000</t>
+    <t>2015-10-20 09:10:36</t>
   </si>
 </sst>
 </file>
